--- a/opstarttijden.xlsx
+++ b/opstarttijden.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiendepauw/Desktop/seba/BAP/Officiele_App/BachelorProef-2020-2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122335E4-0975-7A44-BAEE-B263B3FE369A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AEC865-7208-B346-8B14-1A2B143D2F02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{E9DE67B1-558B-E740-8E8D-A4BB437FC1E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,6 +58,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,18 +160,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -482,1021 +491,1424 @@
   <dimension ref="B1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="E3" s="3">
+      <c r="C3" s="7">
+        <v>321</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="3">
+        <v>856</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="3">
+      <c r="C4" s="7">
+        <v>503</v>
+      </c>
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="3">
+        <v>748</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="E5" s="3">
+      <c r="C5" s="7">
+        <v>639</v>
+      </c>
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="3">
+        <v>854</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="3">
+      <c r="C6" s="7">
+        <v>332</v>
+      </c>
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="3">
+        <v>985</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="E7" s="3">
+      <c r="C7" s="7">
+        <v>594</v>
+      </c>
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="3">
+        <v>727</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="E8" s="3">
+      <c r="C8" s="7">
+        <v>382</v>
+      </c>
+      <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="3">
+        <v>673</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="E9" s="3">
+      <c r="C9" s="7">
+        <v>618</v>
+      </c>
+      <c r="E9" s="1">
         <v>7</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="3">
+        <v>714</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="E10" s="3">
+      <c r="C10" s="7">
+        <v>684</v>
+      </c>
+      <c r="E10" s="1">
         <v>8</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="3">
+        <v>658</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="E11" s="3">
+      <c r="C11" s="7">
+        <v>550</v>
+      </c>
+      <c r="E11" s="1">
         <v>9</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="3">
+        <v>686</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="E12" s="3">
+      <c r="C12" s="7">
+        <v>300</v>
+      </c>
+      <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="3">
+        <v>664</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="E13" s="3">
+      <c r="C13" s="7">
+        <v>425</v>
+      </c>
+      <c r="E13" s="1">
         <v>11</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="3">
+        <v>617</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="E14" s="3">
+      <c r="C14" s="7">
+        <v>554</v>
+      </c>
+      <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="3">
+        <v>702</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="E15" s="3">
+      <c r="C15" s="7">
+        <v>656</v>
+      </c>
+      <c r="E15" s="1">
         <v>13</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="3">
+        <v>924</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="E16" s="3">
+      <c r="C16" s="7">
+        <v>645</v>
+      </c>
+      <c r="E16" s="1">
         <v>14</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="3">
+        <v>702</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="E17" s="3">
+      <c r="C17" s="7">
+        <v>385</v>
+      </c>
+      <c r="E17" s="1">
         <v>15</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="3">
+        <v>796</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="E18" s="3">
+      <c r="C18" s="7">
+        <v>406</v>
+      </c>
+      <c r="E18" s="1">
         <v>16</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="3">
+        <v>687</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="E19" s="3">
+      <c r="C19" s="7">
+        <v>499</v>
+      </c>
+      <c r="E19" s="1">
         <v>17</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="3">
+        <v>675</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="E20" s="3">
+      <c r="C20" s="7">
+        <v>371</v>
+      </c>
+      <c r="E20" s="1">
         <v>18</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="3">
+        <v>704</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="E21" s="3">
+      <c r="C21" s="7">
+        <v>413</v>
+      </c>
+      <c r="E21" s="1">
         <v>19</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="3">
+        <v>626</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="E22" s="3">
+      <c r="C22" s="7">
+        <v>551</v>
+      </c>
+      <c r="E22" s="1">
         <v>20</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="3">
+        <v>596</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="E23" s="3">
+      <c r="C23" s="7">
+        <v>301</v>
+      </c>
+      <c r="E23" s="1">
         <v>21</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="3">
+        <v>648</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="E24" s="3">
+      <c r="C24" s="7">
+        <v>310</v>
+      </c>
+      <c r="E24" s="1">
         <v>22</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="3">
+        <v>652</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="E25" s="3">
+      <c r="C25" s="7">
+        <v>486</v>
+      </c>
+      <c r="E25" s="1">
         <v>23</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="3">
+        <v>677</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="E26" s="3">
+      <c r="C26" s="7">
+        <v>435</v>
+      </c>
+      <c r="E26" s="1">
         <v>24</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>25</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="E27" s="3">
+      <c r="C27" s="7">
+        <v>645</v>
+      </c>
+      <c r="E27" s="1">
         <v>25</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="3">
+        <v>746</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="3">
+      <c r="B28" s="1">
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="E28" s="3">
+      <c r="C28" s="7">
+        <v>399</v>
+      </c>
+      <c r="E28" s="1">
         <v>26</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="3">
+        <v>663</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>27</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="E29" s="3">
+      <c r="C29" s="7">
+        <v>340</v>
+      </c>
+      <c r="E29" s="1">
         <v>27</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="3">
+        <v>622</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="3">
+      <c r="B30" s="1">
         <v>28</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="E30" s="3">
+      <c r="C30" s="7">
+        <v>486</v>
+      </c>
+      <c r="E30" s="1">
         <v>28</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="3">
+        <v>632</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="E31" s="3">
+      <c r="C31" s="7">
+        <v>341</v>
+      </c>
+      <c r="E31" s="1">
         <v>29</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="3">
+        <v>689</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="3">
+      <c r="B32" s="1">
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="E32" s="3">
+      <c r="C32" s="7">
+        <v>522</v>
+      </c>
+      <c r="E32" s="1">
         <v>30</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="3">
+        <v>675</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="E33" s="3">
+      <c r="C33" s="7">
+        <v>328</v>
+      </c>
+      <c r="E33" s="1">
         <v>31</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="3">
+        <v>726</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="E34" s="3">
+      <c r="C34" s="7">
+        <v>623</v>
+      </c>
+      <c r="E34" s="1">
         <v>32</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="3">
+        <v>643</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="3">
+      <c r="B35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="E35" s="3">
+      <c r="C35" s="7">
+        <v>396</v>
+      </c>
+      <c r="E35" s="1">
         <v>33</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="3">
+        <v>624</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>34</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="E36" s="3">
+      <c r="C36" s="7">
+        <v>597</v>
+      </c>
+      <c r="E36" s="1">
         <v>34</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="3">
+        <v>795</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>35</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="E37" s="3">
+      <c r="C37" s="7">
+        <v>349</v>
+      </c>
+      <c r="E37" s="1">
         <v>35</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="3">
+        <v>642</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="3">
+      <c r="B38" s="1">
         <v>36</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="E38" s="3">
+      <c r="C38" s="7">
+        <v>551</v>
+      </c>
+      <c r="E38" s="1">
         <v>36</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="3">
+        <v>653</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>37</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="E39" s="3">
+      <c r="C39" s="7">
+        <v>337</v>
+      </c>
+      <c r="E39" s="1">
         <v>37</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="3">
+        <v>655</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="3">
+      <c r="B40" s="1">
         <v>38</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="E40" s="3">
+      <c r="C40" s="7">
+        <v>318</v>
+      </c>
+      <c r="E40" s="1">
         <v>38</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="3">
+        <v>645</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>39</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="E41" s="3">
+      <c r="C41" s="7">
+        <v>714</v>
+      </c>
+      <c r="E41" s="1">
         <v>39</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="3">
+        <v>630</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="3">
+      <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="E42" s="3">
+      <c r="C42" s="7">
+        <v>338</v>
+      </c>
+      <c r="E42" s="1">
         <v>40</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="3">
+        <v>636</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>41</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="E43" s="3">
+      <c r="C43" s="7">
+        <v>560</v>
+      </c>
+      <c r="E43" s="1">
         <v>41</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="3">
+        <v>667</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>42</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="E44" s="3">
+      <c r="C44" s="7">
+        <v>312</v>
+      </c>
+      <c r="E44" s="1">
         <v>42</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="3">
+        <v>664</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>43</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="E45" s="3">
+      <c r="C45" s="7">
+        <v>346</v>
+      </c>
+      <c r="E45" s="1">
         <v>43</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="3">
+        <v>608</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>44</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="E46" s="3">
+      <c r="C46" s="7">
+        <v>401</v>
+      </c>
+      <c r="E46" s="1">
         <v>44</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="3">
+        <v>812</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>45</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="E47" s="3">
+      <c r="C47" s="7">
+        <v>537</v>
+      </c>
+      <c r="E47" s="1">
         <v>45</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="3">
+        <v>623</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="3">
+      <c r="B48" s="1">
         <v>46</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="E48" s="3">
+      <c r="C48" s="7">
+        <v>430</v>
+      </c>
+      <c r="E48" s="1">
         <v>46</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="3">
+        <v>653</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="3">
+      <c r="B49" s="1">
         <v>47</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="E49" s="3">
+      <c r="C49" s="7">
+        <v>580</v>
+      </c>
+      <c r="E49" s="1">
         <v>47</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="3">
+        <v>618</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="3">
+      <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="E50" s="3">
+      <c r="C50" s="7">
+        <v>309</v>
+      </c>
+      <c r="E50" s="1">
         <v>48</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="3">
+        <v>620</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="3">
+      <c r="B51" s="1">
         <v>49</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="E51" s="3">
+      <c r="C51" s="7">
+        <v>410</v>
+      </c>
+      <c r="E51" s="1">
         <v>49</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="3">
+        <v>686</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="3">
+      <c r="B52" s="1">
         <v>50</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="E52" s="3">
+      <c r="C52" s="7">
+        <v>848</v>
+      </c>
+      <c r="E52" s="1">
         <v>50</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="3">
+        <v>631</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="3">
+      <c r="B53" s="1">
         <v>51</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="E53" s="3">
+      <c r="C53" s="7">
+        <v>341</v>
+      </c>
+      <c r="E53" s="1">
         <v>51</v>
       </c>
-      <c r="F53" s="1"/>
+      <c r="F53" s="3">
+        <v>632</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="3">
+      <c r="B54" s="1">
         <v>52</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="E54" s="3">
+      <c r="C54" s="7">
+        <v>416</v>
+      </c>
+      <c r="E54" s="1">
         <v>52</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="3">
+        <v>582</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="3">
+      <c r="B55" s="1">
         <v>53</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="E55" s="3">
+      <c r="C55" s="7">
+        <v>400</v>
+      </c>
+      <c r="E55" s="1">
         <v>53</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="3">
+        <v>611</v>
+      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="3">
+      <c r="B56" s="1">
         <v>54</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="E56" s="3">
+      <c r="C56" s="7">
+        <v>565</v>
+      </c>
+      <c r="E56" s="1">
         <v>54</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="3">
+        <v>955</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="3">
+      <c r="B57" s="1">
         <v>55</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="E57" s="3">
+      <c r="C57" s="7">
+        <v>357</v>
+      </c>
+      <c r="E57" s="1">
         <v>55</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="F57" s="3">
+        <v>726</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="3">
+      <c r="B58" s="1">
         <v>56</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="E58" s="3">
+      <c r="C58" s="7">
+        <v>553</v>
+      </c>
+      <c r="E58" s="1">
         <v>56</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58" s="3">
+        <v>635</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="3">
+      <c r="B59" s="1">
         <v>57</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="E59" s="3">
+      <c r="C59" s="7">
+        <v>401</v>
+      </c>
+      <c r="E59" s="1">
         <v>57</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="3">
+        <v>649</v>
+      </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="3">
+      <c r="B60" s="1">
         <v>58</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="E60" s="3">
+      <c r="C60" s="7">
+        <v>414</v>
+      </c>
+      <c r="E60" s="1">
         <v>58</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="3">
+        <v>644</v>
+      </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="3">
+      <c r="B61" s="1">
         <v>59</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="E61" s="3">
+      <c r="C61" s="7">
+        <v>316</v>
+      </c>
+      <c r="E61" s="1">
         <v>59</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="3">
+        <v>607</v>
+      </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="3">
+      <c r="B62" s="1">
         <v>60</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="E62" s="3">
+      <c r="C62" s="7">
+        <v>452</v>
+      </c>
+      <c r="E62" s="1">
         <v>60</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="3">
+        <v>635</v>
+      </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B63" s="3">
+      <c r="B63" s="1">
         <v>61</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="E63" s="3">
+      <c r="C63" s="7">
+        <v>302</v>
+      </c>
+      <c r="E63" s="1">
         <v>61</v>
       </c>
-      <c r="F63" s="1"/>
+      <c r="F63" s="3">
+        <v>615</v>
+      </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64" s="3">
+      <c r="B64" s="1">
         <v>62</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="E64" s="3">
+      <c r="C64" s="7">
+        <v>329</v>
+      </c>
+      <c r="E64" s="1">
         <v>62</v>
       </c>
-      <c r="F64" s="1"/>
+      <c r="F64" s="3">
+        <v>602</v>
+      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="3">
+      <c r="B65" s="1">
         <v>63</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="E65" s="3">
+      <c r="C65" s="7">
+        <v>620</v>
+      </c>
+      <c r="E65" s="1">
         <v>63</v>
       </c>
-      <c r="F65" s="1"/>
+      <c r="F65" s="3">
+        <v>728</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="3">
+      <c r="B66" s="1">
         <v>64</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="E66" s="3">
+      <c r="C66" s="7">
+        <v>293</v>
+      </c>
+      <c r="E66" s="1">
         <v>64</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="3">
+        <v>635</v>
+      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="3">
+      <c r="B67" s="1">
         <v>65</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="E67" s="3">
+      <c r="C67" s="7">
+        <v>398</v>
+      </c>
+      <c r="E67" s="1">
         <v>65</v>
       </c>
-      <c r="F67" s="1"/>
+      <c r="F67" s="3">
+        <v>653</v>
+      </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="3">
+      <c r="B68" s="1">
         <v>66</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="E68" s="3">
+      <c r="C68" s="7">
+        <v>818</v>
+      </c>
+      <c r="E68" s="1">
         <v>66</v>
       </c>
-      <c r="F68" s="1"/>
+      <c r="F68" s="3">
+        <v>640</v>
+      </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="3">
+      <c r="B69" s="1">
         <v>67</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="E69" s="3">
+      <c r="C69" s="7">
+        <v>418</v>
+      </c>
+      <c r="E69" s="1">
         <v>67</v>
       </c>
-      <c r="F69" s="1"/>
+      <c r="F69" s="3">
+        <v>734</v>
+      </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="3">
+      <c r="B70" s="1">
         <v>68</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="E70" s="3">
+      <c r="C70" s="7">
+        <v>702</v>
+      </c>
+      <c r="E70" s="1">
         <v>68</v>
       </c>
-      <c r="F70" s="1"/>
+      <c r="F70" s="3">
+        <v>624</v>
+      </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="3">
+      <c r="B71" s="1">
         <v>69</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="E71" s="3">
+      <c r="C71" s="7">
+        <v>319</v>
+      </c>
+      <c r="E71" s="1">
         <v>69</v>
       </c>
-      <c r="F71" s="1"/>
+      <c r="F71" s="3">
+        <v>625</v>
+      </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="3">
+      <c r="B72" s="1">
         <v>70</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="E72" s="3">
+      <c r="C72" s="7">
+        <v>336</v>
+      </c>
+      <c r="E72" s="1">
         <v>70</v>
       </c>
-      <c r="F72" s="1"/>
+      <c r="F72" s="3">
+        <v>596</v>
+      </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="3">
+      <c r="B73" s="1">
         <v>71</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="E73" s="3">
+      <c r="C73" s="7">
+        <v>460</v>
+      </c>
+      <c r="E73" s="1">
         <v>71</v>
       </c>
-      <c r="F73" s="1"/>
+      <c r="F73" s="3">
+        <v>910</v>
+      </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="3">
+      <c r="B74" s="1">
         <v>72</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="E74" s="3">
+      <c r="C74" s="7">
+        <v>432</v>
+      </c>
+      <c r="E74" s="1">
         <v>72</v>
       </c>
-      <c r="F74" s="1"/>
+      <c r="F74" s="3">
+        <v>695</v>
+      </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="3">
+      <c r="B75" s="1">
         <v>73</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="E75" s="3">
+      <c r="C75" s="7">
+        <v>401</v>
+      </c>
+      <c r="E75" s="1">
         <v>73</v>
       </c>
-      <c r="F75" s="1"/>
+      <c r="F75" s="3">
+        <v>628</v>
+      </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="3">
+      <c r="B76" s="1">
         <v>74</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="E76" s="3">
+      <c r="C76" s="7">
+        <v>392</v>
+      </c>
+      <c r="E76" s="1">
         <v>74</v>
       </c>
-      <c r="F76" s="1"/>
+      <c r="F76" s="3">
+        <v>617</v>
+      </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="3">
+      <c r="B77" s="1">
         <v>75</v>
       </c>
-      <c r="C77" s="1"/>
-      <c r="E77" s="3">
+      <c r="C77" s="7">
+        <v>502</v>
+      </c>
+      <c r="E77" s="1">
         <v>75</v>
       </c>
-      <c r="F77" s="1"/>
+      <c r="F77" s="3">
+        <v>626</v>
+      </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="3">
+      <c r="B78" s="1">
         <v>76</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="E78" s="3">
+      <c r="C78" s="7">
+        <v>345</v>
+      </c>
+      <c r="E78" s="1">
         <v>76</v>
       </c>
-      <c r="F78" s="1"/>
+      <c r="F78" s="3">
+        <v>612</v>
+      </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" s="3">
+      <c r="B79" s="1">
         <v>77</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="E79" s="3">
+      <c r="C79" s="7">
+        <v>318</v>
+      </c>
+      <c r="E79" s="1">
         <v>77</v>
       </c>
-      <c r="F79" s="1"/>
+      <c r="F79" s="3">
+        <v>655</v>
+      </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="3">
+      <c r="B80" s="1">
         <v>78</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="E80" s="3">
+      <c r="C80" s="7">
+        <v>352</v>
+      </c>
+      <c r="E80" s="1">
         <v>78</v>
       </c>
-      <c r="F80" s="1"/>
+      <c r="F80" s="3">
+        <v>624</v>
+      </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" s="3">
+      <c r="B81" s="1">
         <v>79</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="E81" s="3">
+      <c r="C81" s="7">
+        <v>571</v>
+      </c>
+      <c r="E81" s="1">
         <v>79</v>
       </c>
-      <c r="F81" s="1"/>
+      <c r="F81" s="3">
+        <v>615</v>
+      </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" s="3">
+      <c r="B82" s="1">
         <v>80</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="E82" s="3">
+      <c r="C82" s="7">
+        <v>313</v>
+      </c>
+      <c r="E82" s="1">
         <v>80</v>
       </c>
-      <c r="F82" s="1"/>
+      <c r="F82" s="3">
+        <v>635</v>
+      </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83" s="3">
+      <c r="B83" s="1">
         <v>81</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="E83" s="3">
+      <c r="C83" s="7">
+        <v>399</v>
+      </c>
+      <c r="E83" s="1">
         <v>81</v>
       </c>
-      <c r="F83" s="1"/>
+      <c r="F83" s="3">
+        <v>980</v>
+      </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="3">
+      <c r="B84" s="1">
         <v>82</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="E84" s="3">
+      <c r="C84" s="7">
+        <v>597</v>
+      </c>
+      <c r="E84" s="1">
         <v>82</v>
       </c>
-      <c r="F84" s="1"/>
+      <c r="F84" s="3">
+        <v>679</v>
+      </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="3">
+      <c r="B85" s="1">
         <v>83</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="E85" s="3">
+      <c r="C85" s="7">
+        <v>380</v>
+      </c>
+      <c r="E85" s="1">
         <v>83</v>
       </c>
-      <c r="F85" s="1"/>
+      <c r="F85" s="3">
+        <v>625</v>
+      </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" s="3">
+      <c r="B86" s="1">
         <v>84</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="E86" s="3">
+      <c r="C86" s="7">
+        <v>453</v>
+      </c>
+      <c r="E86" s="1">
         <v>84</v>
       </c>
-      <c r="F86" s="1"/>
+      <c r="F86" s="3">
+        <v>649</v>
+      </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" s="3">
+      <c r="B87" s="1">
         <v>85</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="E87" s="3">
+      <c r="C87" s="7">
+        <v>357</v>
+      </c>
+      <c r="E87" s="1">
         <v>85</v>
       </c>
-      <c r="F87" s="1"/>
+      <c r="F87" s="3">
+        <v>630</v>
+      </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88" s="3">
+      <c r="B88" s="1">
         <v>86</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="E88" s="3">
+      <c r="C88" s="7">
+        <v>562</v>
+      </c>
+      <c r="E88" s="1">
         <v>86</v>
       </c>
-      <c r="F88" s="1"/>
+      <c r="F88" s="3">
+        <v>633</v>
+      </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B89" s="3">
+      <c r="B89" s="1">
         <v>87</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="E89" s="3">
+      <c r="C89" s="7">
+        <v>555</v>
+      </c>
+      <c r="E89" s="1">
         <v>87</v>
       </c>
-      <c r="F89" s="1"/>
+      <c r="F89" s="3">
+        <v>613</v>
+      </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B90" s="3">
+      <c r="B90" s="1">
         <v>88</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="E90" s="3">
+      <c r="C90" s="7">
+        <v>417</v>
+      </c>
+      <c r="E90" s="1">
         <v>88</v>
       </c>
-      <c r="F90" s="1"/>
+      <c r="F90" s="3">
+        <v>699</v>
+      </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B91" s="3">
+      <c r="B91" s="1">
         <v>89</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="E91" s="3">
+      <c r="C91" s="7">
+        <v>476</v>
+      </c>
+      <c r="E91" s="1">
         <v>89</v>
       </c>
-      <c r="F91" s="1"/>
+      <c r="F91" s="3">
+        <v>901</v>
+      </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="3">
+      <c r="B92" s="1">
         <v>90</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="E92" s="3">
+      <c r="C92" s="7">
+        <v>367</v>
+      </c>
+      <c r="E92" s="1">
         <v>90</v>
       </c>
-      <c r="F92" s="1"/>
+      <c r="F92" s="3">
+        <v>704</v>
+      </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B93" s="3">
+      <c r="B93" s="1">
         <v>91</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="E93" s="3">
+      <c r="C93" s="7">
+        <v>444</v>
+      </c>
+      <c r="E93" s="1">
         <v>91</v>
       </c>
-      <c r="F93" s="1"/>
+      <c r="F93" s="3">
+        <v>649</v>
+      </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B94" s="3">
+      <c r="B94" s="1">
         <v>92</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="E94" s="3">
+      <c r="C94" s="7">
+        <v>445</v>
+      </c>
+      <c r="E94" s="1">
         <v>92</v>
       </c>
-      <c r="F94" s="1"/>
+      <c r="F94" s="3">
+        <v>623</v>
+      </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B95" s="3">
+      <c r="B95" s="1">
         <v>93</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="E95" s="3">
+      <c r="C95" s="7">
+        <v>720</v>
+      </c>
+      <c r="E95" s="1">
         <v>93</v>
       </c>
-      <c r="F95" s="1"/>
+      <c r="F95" s="3">
+        <v>661</v>
+      </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B96" s="3">
+      <c r="B96" s="1">
         <v>94</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="E96" s="3">
+      <c r="C96" s="7">
+        <v>330</v>
+      </c>
+      <c r="E96" s="1">
         <v>94</v>
       </c>
-      <c r="F96" s="1"/>
+      <c r="F96" s="3">
+        <v>646</v>
+      </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" s="3">
+      <c r="B97" s="1">
         <v>95</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="E97" s="3">
+      <c r="C97" s="7">
+        <v>339</v>
+      </c>
+      <c r="E97" s="1">
         <v>95</v>
       </c>
-      <c r="F97" s="1"/>
+      <c r="F97" s="3">
+        <v>639</v>
+      </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="3">
+      <c r="B98" s="1">
         <v>96</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="E98" s="3">
+      <c r="C98" s="7">
+        <v>491</v>
+      </c>
+      <c r="E98" s="1">
         <v>96</v>
       </c>
-      <c r="F98" s="1"/>
+      <c r="F98" s="3">
+        <v>652</v>
+      </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99" s="3">
+      <c r="B99" s="1">
         <v>97</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="E99" s="3">
+      <c r="C99" s="7">
+        <v>457</v>
+      </c>
+      <c r="E99" s="1">
         <v>97</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="F99" s="3">
+        <v>634</v>
+      </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" s="3">
+      <c r="B100" s="1">
         <v>98</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="E100" s="3">
+      <c r="C100" s="7">
+        <v>428</v>
+      </c>
+      <c r="E100" s="1">
         <v>98</v>
       </c>
-      <c r="F100" s="1"/>
+      <c r="F100" s="3">
+        <v>613</v>
+      </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" s="3">
+      <c r="B101" s="1">
         <v>99</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="E101" s="3">
+      <c r="C101" s="7">
+        <v>356</v>
+      </c>
+      <c r="E101" s="1">
         <v>99</v>
       </c>
-      <c r="F101" s="1"/>
+      <c r="F101" s="3">
+        <v>620</v>
+      </c>
     </row>
     <row r="102" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="4">
+      <c r="B102" s="2">
         <v>100</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="E102" s="4">
+      <c r="C102" s="8">
+        <v>652</v>
+      </c>
+      <c r="E102" s="2">
         <v>100</v>
       </c>
-      <c r="F102" s="2"/>
+      <c r="F102" s="4">
+        <v>757</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
